--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H2">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>9.688363000000001</v>
+        <v>16.034937</v>
       </c>
       <c r="N2">
-        <v>29.065089</v>
+        <v>48.10481100000001</v>
       </c>
       <c r="O2">
-        <v>0.1053077753334822</v>
+        <v>0.1585295454080115</v>
       </c>
       <c r="P2">
-        <v>0.1053077753334822</v>
+        <v>0.1585295454080115</v>
       </c>
       <c r="Q2">
-        <v>1268.747608317927</v>
+        <v>1501.315997383117</v>
       </c>
       <c r="R2">
-        <v>11418.72847486134</v>
+        <v>13511.84397644805</v>
       </c>
       <c r="S2">
-        <v>0.05619787244959135</v>
+        <v>0.05118274043370669</v>
       </c>
       <c r="T2">
-        <v>0.05619787244959135</v>
+        <v>0.05118274043370669</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H3">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>71.80093133333334</v>
+        <v>71.80093133333332</v>
       </c>
       <c r="N3">
         <v>215.402794</v>
       </c>
       <c r="O3">
-        <v>0.780441065800843</v>
+        <v>0.7098605379082673</v>
       </c>
       <c r="P3">
-        <v>0.7804410658008429</v>
+        <v>0.7098605379082674</v>
       </c>
       <c r="Q3">
-        <v>9402.750485728742</v>
+        <v>6722.563789164873</v>
       </c>
       <c r="R3">
-        <v>84624.75437155868</v>
+        <v>60503.07410248385</v>
       </c>
       <c r="S3">
-        <v>0.4164851771999598</v>
+        <v>0.2291850869967494</v>
       </c>
       <c r="T3">
-        <v>0.4164851771999597</v>
+        <v>0.2291850869967495</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H4">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.51115833333333</v>
+        <v>13.312072</v>
       </c>
       <c r="N4">
-        <v>31.533475</v>
+        <v>39.936216</v>
       </c>
       <c r="O4">
-        <v>0.1142511588656749</v>
+        <v>0.1316099166837212</v>
       </c>
       <c r="P4">
-        <v>0.1142511588656749</v>
+        <v>0.1316099166837212</v>
       </c>
       <c r="Q4">
-        <v>1376.497453291925</v>
+        <v>1246.380116860819</v>
       </c>
       <c r="R4">
-        <v>12388.47707962733</v>
+        <v>11217.42105174737</v>
       </c>
       <c r="S4">
-        <v>0.06097054118576336</v>
+        <v>0.04249148754440473</v>
       </c>
       <c r="T4">
-        <v>0.06097054118576336</v>
+        <v>0.04249148754440473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H5">
         <v>199.18623</v>
       </c>
       <c r="I5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>9.688363000000001</v>
+        <v>16.034937</v>
       </c>
       <c r="N5">
-        <v>29.065089</v>
+        <v>48.10481100000001</v>
       </c>
       <c r="O5">
-        <v>0.1053077753334822</v>
+        <v>0.1585295454080115</v>
       </c>
       <c r="P5">
-        <v>0.1053077753334822</v>
+        <v>0.1585295454080115</v>
       </c>
       <c r="Q5">
-        <v>643.2628336138301</v>
+        <v>1064.64621643917</v>
       </c>
       <c r="R5">
-        <v>5789.365502524471</v>
+        <v>9581.815947952531</v>
       </c>
       <c r="S5">
-        <v>0.02849266665646722</v>
+        <v>0.03629583048786258</v>
       </c>
       <c r="T5">
-        <v>0.02849266665646722</v>
+        <v>0.03629583048786258</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H6">
         <v>199.18623</v>
       </c>
       <c r="I6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.80093133333334</v>
+        <v>71.80093133333332</v>
       </c>
       <c r="N6">
         <v>215.402794</v>
       </c>
       <c r="O6">
-        <v>0.780441065800843</v>
+        <v>0.7098605379082673</v>
       </c>
       <c r="P6">
-        <v>0.7804410658008429</v>
+        <v>0.7098605379082674</v>
       </c>
       <c r="Q6">
-        <v>4767.252274258514</v>
+        <v>4767.252274258512</v>
       </c>
       <c r="R6">
-        <v>42905.27046832663</v>
+        <v>42905.27046832661</v>
       </c>
       <c r="S6">
-        <v>0.2111605440572942</v>
+        <v>0.1625247690430793</v>
       </c>
       <c r="T6">
-        <v>0.2111605440572942</v>
+        <v>0.1625247690430793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H7">
         <v>199.18623</v>
       </c>
       <c r="I7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.51115833333333</v>
+        <v>13.312072</v>
       </c>
       <c r="N7">
-        <v>31.533475</v>
+        <v>39.936216</v>
       </c>
       <c r="O7">
-        <v>0.1142511588656749</v>
+        <v>0.1316099166837212</v>
       </c>
       <c r="P7">
-        <v>0.1142511588656749</v>
+        <v>0.1316099166837212</v>
       </c>
       <c r="Q7">
-        <v>697.8926671165835</v>
+        <v>883.86047838952</v>
       </c>
       <c r="R7">
-        <v>6281.034004049251</v>
+        <v>7954.74430550568</v>
       </c>
       <c r="S7">
-        <v>0.0309124390327875</v>
+        <v>0.0301324981042471</v>
       </c>
       <c r="T7">
-        <v>0.0309124390327875</v>
+        <v>0.0301324981042471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H8">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>9.688363000000001</v>
+        <v>16.034937</v>
       </c>
       <c r="N8">
-        <v>29.065089</v>
+        <v>48.10481100000001</v>
       </c>
       <c r="O8">
-        <v>0.1053077753334822</v>
+        <v>0.1585295454080115</v>
       </c>
       <c r="P8">
-        <v>0.1053077753334822</v>
+        <v>0.1585295454080115</v>
       </c>
       <c r="Q8">
-        <v>465.463691301355</v>
+        <v>2084.100298699663</v>
       </c>
       <c r="R8">
-        <v>4189.173221712195</v>
+        <v>18756.90268829697</v>
       </c>
       <c r="S8">
-        <v>0.02061723622742368</v>
+        <v>0.07105097448644224</v>
       </c>
       <c r="T8">
-        <v>0.02061723622742368</v>
+        <v>0.07105097448644224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H9">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.80093133333334</v>
+        <v>71.80093133333332</v>
       </c>
       <c r="N9">
         <v>215.402794</v>
       </c>
       <c r="O9">
-        <v>0.780441065800843</v>
+        <v>0.7098605379082673</v>
       </c>
       <c r="P9">
-        <v>0.7804410658008429</v>
+        <v>0.7098605379082674</v>
       </c>
       <c r="Q9">
-        <v>3449.574147592164</v>
+        <v>9332.144082556357</v>
       </c>
       <c r="R9">
-        <v>31046.16732832947</v>
+        <v>83989.2967430072</v>
       </c>
       <c r="S9">
-        <v>0.152795344543589</v>
+        <v>0.3181506818684386</v>
       </c>
       <c r="T9">
-        <v>0.152795344543589</v>
+        <v>0.3181506818684387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H10">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.51115833333333</v>
+        <v>13.312072</v>
       </c>
       <c r="N10">
-        <v>31.533475</v>
+        <v>39.936216</v>
       </c>
       <c r="O10">
-        <v>0.1142511588656749</v>
+        <v>0.1316099166837212</v>
       </c>
       <c r="P10">
-        <v>0.1142511588656749</v>
+        <v>0.1316099166837212</v>
       </c>
       <c r="Q10">
-        <v>504.9937288359584</v>
+        <v>1730.202820972195</v>
       </c>
       <c r="R10">
-        <v>4544.943559523625</v>
+        <v>15571.82538874975</v>
       </c>
       <c r="S10">
-        <v>0.02236817864712401</v>
+        <v>0.05898593103506936</v>
       </c>
       <c r="T10">
-        <v>0.02236817864712401</v>
+        <v>0.05898593103506936</v>
       </c>
     </row>
   </sheetData>
